--- a/storage/app/public/censusNo_className_sis_students_bulk_upload_2007_V2.2.0_20201012.xlsx
+++ b/storage/app/public/censusNo_className_sis_students_bulk_upload_2007_V2.2.0_20201012.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewis\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="1832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="1832">
   <si>
     <t>School Name</t>
   </si>
@@ -6258,7 +6253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -6576,7 +6571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6676,6 +6671,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6688,28 +6701,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6841,7 +6839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6873,10 +6871,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6908,7 +6905,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7084,7 +7080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7115,11 +7111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7141,36 +7137,35 @@
     <col min="16" max="16" width="25.28515625" customWidth="1"/>
     <col min="17" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="24" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="38" width="24" customWidth="1"/>
-    <col min="39" max="39" width="50.7109375" customWidth="1"/>
-    <col min="40" max="40" width="33.28515625" customWidth="1"/>
-    <col min="41" max="41" width="27.85546875" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" customWidth="1"/>
-    <col min="43" max="44" width="21.85546875" customWidth="1"/>
-    <col min="45" max="45" width="26.140625" customWidth="1"/>
-    <col min="46" max="46" width="22.28515625" customWidth="1"/>
-    <col min="47" max="47" width="40.5703125" customWidth="1"/>
-    <col min="48" max="48" width="32.85546875" customWidth="1"/>
-    <col min="49" max="49" width="23.28515625" customWidth="1"/>
-    <col min="50" max="50" width="25.28515625" customWidth="1"/>
-    <col min="51" max="52" width="19.42578125" customWidth="1"/>
-    <col min="53" max="53" width="19.28515625" customWidth="1"/>
-    <col min="54" max="54" width="21.7109375" customWidth="1"/>
-    <col min="55" max="55" width="44.7109375" customWidth="1"/>
-    <col min="56" max="56" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="23.42578125" customWidth="1"/>
-    <col min="58" max="58" width="34.7109375" customWidth="1"/>
-    <col min="59" max="59" width="25" customWidth="1"/>
-    <col min="60" max="60" width="32" customWidth="1"/>
-    <col min="61" max="62" width="20.7109375" customWidth="1"/>
-    <col min="63" max="63" width="21.140625" customWidth="1"/>
-    <col min="64" max="64" width="27.42578125" customWidth="1"/>
-    <col min="65" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="37" width="24" customWidth="1"/>
+    <col min="38" max="38" width="50.7109375" customWidth="1"/>
+    <col min="39" max="39" width="33.28515625" customWidth="1"/>
+    <col min="40" max="40" width="27.85546875" customWidth="1"/>
+    <col min="41" max="41" width="25.7109375" customWidth="1"/>
+    <col min="42" max="43" width="21.85546875" customWidth="1"/>
+    <col min="44" max="44" width="26.140625" customWidth="1"/>
+    <col min="45" max="45" width="22.28515625" customWidth="1"/>
+    <col min="46" max="46" width="40.5703125" customWidth="1"/>
+    <col min="47" max="47" width="32.85546875" customWidth="1"/>
+    <col min="48" max="48" width="23.28515625" customWidth="1"/>
+    <col min="49" max="49" width="25.28515625" customWidth="1"/>
+    <col min="50" max="51" width="19.42578125" customWidth="1"/>
+    <col min="52" max="52" width="19.28515625" customWidth="1"/>
+    <col min="53" max="53" width="21.7109375" customWidth="1"/>
+    <col min="54" max="54" width="44.7109375" customWidth="1"/>
+    <col min="55" max="55" width="31.28515625" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="23.42578125" customWidth="1"/>
+    <col min="57" max="57" width="34.7109375" customWidth="1"/>
+    <col min="58" max="58" width="25" customWidth="1"/>
+    <col min="59" max="59" width="32" customWidth="1"/>
+    <col min="60" max="61" width="20.7109375" customWidth="1"/>
+    <col min="62" max="62" width="21.140625" customWidth="1"/>
+    <col min="63" max="63" width="27.42578125" customWidth="1"/>
+    <col min="64" max="1024" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="100.5" customHeight="1">
+    <row r="1" spans="1:63" ht="100.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -7184,19 +7179,19 @@
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="50"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="51"/>
+      <c r="N1" s="46"/>
       <c r="O1" s="47" t="s">
         <v>9</v>
       </c>
@@ -7205,104 +7200,103 @@
         <v>10</v>
       </c>
       <c r="R1" s="47"/>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48" t="s">
+      <c r="T1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="47" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47" t="s">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47" t="s">
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47" t="s">
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="6" t="s">
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="7" t="s">
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="43" t="s">
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="9" t="s">
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="AT1" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="AU1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="10" t="s">
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="44" t="s">
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="9" t="s">
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="45" t="s">
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="15" t="s">
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="46" t="s">
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="9" t="s">
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="35.25" customHeight="1">
+    <row r="2" spans="1:63" ht="35.25" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -7361,155 +7355,152 @@
         <v>47</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>50</v>
       </c>
+      <c r="V2" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="W2" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z2" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC2" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD2" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG2" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH2" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AL2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="23" t="s">
+      <c r="AM2" s="23" t="s">
         <v>68</v>
       </c>
+      <c r="AN2" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="AO2" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AQ2" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AR2" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AT2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AU2" s="25" t="s">
         <v>76</v>
       </c>
+      <c r="AV2" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="AW2" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AX2" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AY2" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AZ2" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB2" s="24" t="s">
         <v>82</v>
       </c>
+      <c r="BB2" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="BC2" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" s="26" t="s">
         <v>84</v>
       </c>
+      <c r="BD2" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="BE2" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF2" s="27" t="s">
         <v>86</v>
       </c>
+      <c r="BF2" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="BG2" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BH2" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BI2" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BJ2" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BK2" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL2" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="6" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="8" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:63" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:63" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -8495,26 +8486,25 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BJ1:BK1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8534,7 +8524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CB1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8600,23 +8590,23 @@
       <c r="D1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="49"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="49"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="5"/>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="51"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="47" t="s">
         <v>9</v>
       </c>
@@ -8675,10 +8665,10 @@
       <c r="AO1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="43" t="s">
+      <c r="AP1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AQ1" s="43"/>
+      <c r="AQ1" s="49"/>
       <c r="AR1" s="8"/>
       <c r="AS1" s="10" t="s">
         <v>15</v>
@@ -8690,27 +8680,27 @@
       <c r="AV1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AW1" s="44" t="s">
+      <c r="AW1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AX1" s="44"/>
+      <c r="AX1" s="50"/>
       <c r="AY1" s="11"/>
       <c r="AZ1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="BA1" s="13"/>
-      <c r="BB1" s="45" t="s">
+      <c r="BB1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="BC1" s="45"/>
+      <c r="BC1" s="51"/>
       <c r="BD1" s="14"/>
       <c r="BE1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BF1" s="46" t="s">
+      <c r="BF1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="46"/>
+      <c r="BG1" s="52"/>
       <c r="BH1" s="14"/>
       <c r="CA1" s="30"/>
       <c r="CB1" s="30"/>
@@ -9897,25 +9887,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BF1:BG1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9923,7 +9913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB1541"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -9951,50 +9941,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="53" t="s">
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="53"/>
+      <c r="X1" s="55"/>
       <c r="Y1" s="32" t="s">
         <v>104</v>
       </c>
@@ -67903,16 +67893,16 @@
   </sheetData>
   <autoFilter ref="V3:V77"/>
   <mergeCells count="10">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
